--- a/backend/reports/xlsx/Tab_42_rpt_PF_PortfolioStobRecoveries.xlsx
+++ b/backend/reports/xlsx/Tab_42_rpt_PF_PortfolioStobRecoveries.xlsx
@@ -1,42 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrien/work/gdx-agreements-tracker/backend/reports/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32E67C80-AA4C-4E45-ADD4-D6AD80854D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF792C8-587F-DB44-AB2C-03EB96E3A250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14280" yWindow="-21100" windowWidth="51200" windowHeight="21100" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t>Financial Recoveries by Portfolio &amp; STOB for Fiscal Year {$fy}</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>Project #</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
   <si>
     <t>{#r=d.report[i]}</t>
   </si>
@@ -44,22 +40,146 @@
     <t>{#r1=d.report[i+1]}</t>
   </si>
   <si>
-    <t>{#t=d.report_totals[i]}</t>
-  </si>
-  <si>
     <t>{#date=d.date}</t>
   </si>
   <si>
-    <t>Project #</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>{#fy=d.fiscal_year}</t>
-  </si>
-  <si>
-    <t>Project ________ for {$fy} as of {$date}</t>
+    <t>{$r.project_name}</t>
+  </si>
+  <si>
+    <t>{$r.portfolio_name}</t>
+  </si>
+  <si>
+    <t>{$r.project_number}</t>
+  </si>
+  <si>
+    <t>{$r.cy_total_recoverable}</t>
+  </si>
+  <si>
+    <t>{$r.contract_costs}</t>
+  </si>
+  <si>
+    <t>{$r.contract_recovered}</t>
+  </si>
+  <si>
+    <t>{$r.travel_costs}</t>
+  </si>
+  <si>
+    <t>{$r.business_expenses}</t>
+  </si>
+  <si>
+    <t>{$r.business_expenses_recovered}</t>
+  </si>
+  <si>
+    <t>{$r.travel_recovered}</t>
+  </si>
+  <si>
+    <t>{$r.staff_recoveries}</t>
+  </si>
+  <si>
+    <t>{$r.other}</t>
+  </si>
+  <si>
+    <t>{$r.other_recovered}</t>
+  </si>
+  <si>
+    <t>{$t.cy_total_recoverable}</t>
+  </si>
+  <si>
+    <t>{$t.contract_costs}</t>
+  </si>
+  <si>
+    <t>{$t.contract_recovered}</t>
+  </si>
+  <si>
+    <t>{$t.travel_costs}</t>
+  </si>
+  <si>
+    <t>{$t.travel_recovered}</t>
+  </si>
+  <si>
+    <t>{$t.business_expenses}</t>
+  </si>
+  <si>
+    <t>{$t.business_expenses_recovered}</t>
+  </si>
+  <si>
+    <t>{$t.staff_recoveries}</t>
+  </si>
+  <si>
+    <t>{$t.other}</t>
+  </si>
+  <si>
+    <t>{$t.other_recovered}</t>
+  </si>
+  <si>
+    <t>{#fy=d.fiscal}</t>
+  </si>
+  <si>
+    <t>{#t=d.totals[i]}</t>
+  </si>
+  <si>
+    <t>{$t.staff_recoveries_recovered}</t>
+  </si>
+  <si>
+    <t>{$r.staff_recoveries_recovered}</t>
+  </si>
+  <si>
+    <t>{$r1}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF404040"/>
+        <rFont val="BCSans-Regular"/>
+      </rPr>
+      <t>Other STOBS</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL  </t>
+  </si>
+  <si>
+    <t>Staff Recoveries
+Recovered To Date</t>
+  </si>
+  <si>
+    <t>Other Recovered
+To Date</t>
+  </si>
+  <si>
+    <t>Travel Recovered
+To Date</t>
+  </si>
+  <si>
+    <t>Business Expenses
+(STOB 65*)</t>
+  </si>
+  <si>
+    <t>Staff Recoveries
+(STOB 88*)</t>
+  </si>
+  <si>
+    <t>Business Expenses
+Recovered To Date</t>
+  </si>
+  <si>
+    <t>Travel Costs
+(STOB 57*)</t>
+  </si>
+  <si>
+    <t>Contract Costs
+Recovered To Date</t>
+  </si>
+  <si>
+    <t>All Contract Costs
+(6309, 6310, 6001,
+ 6002, 6398)</t>
+  </si>
+  <si>
+    <t>Recoverable Amount
+Current Fiscal</t>
   </si>
 </sst>
 </file>
@@ -67,46 +187,81 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="12">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="BCSans-Regular"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="BCSans-Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="BCSans-Regular"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
       <name val="BCSans-Regular"/>
     </font>
     <font>
-      <sz val="8.5"/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="BCSans-Regular"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
       <name val="BCSans-Regular"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="BCSans-Regular"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF404040"/>
       <name val="BCSans-Regular"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="BCSans-Regular"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="BCSans-Regular"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,17 +271,22 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF003365"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -135,17 +295,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
       </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
       </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -163,22 +323,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFBFBFBF"/>
       </right>
       <top style="medium">
-        <color rgb="FFA5A5A5"/>
+        <color rgb="FFBFBFBF"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
       <bottom style="medium">
         <color rgb="FFA5A5A5"/>
       </bottom>
@@ -186,10 +357,97 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="double">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FFBFBFBF"/>
       </right>
       <top style="medium">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="double">
         <color rgb="FFBFBFBF"/>
       </top>
       <bottom style="medium">
@@ -201,60 +459,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="7" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF003365"/>
-      <color rgb="FFC5DAF1"/>
+      <color rgb="FFF2F2F2"/>
     </mruColors>
   </colors>
   <extLst>
@@ -279,16 +576,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1561691</xdr:colOff>
+      <xdr:colOff>102684</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>680356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Graphic 3">
+        <xdr:cNvPr id="2" name="Graphic 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3FB7DC-2494-89FE-0AC0-2E0678523FE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB9CA767-DB9F-9F4F-BBD9-BF18987E3B22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -311,7 +608,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2411054" cy="680356"/>
+          <a:ext cx="2411614" cy="680356"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -358,20 +655,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -399,31 +696,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -451,23 +731,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,263 +742,408 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F20F7FF-D6FB-0145-BC76-92F810195548}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="C2:I2"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
-    <col min="3" max="9" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
+    <col min="15" max="15" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:14" ht="59" customHeight="1" thickBot="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="49" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="20" thickBot="1">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1"/>
+    <row r="7" spans="1:14" ht="18" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="20" thickBot="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
+    <row r="9" spans="1:14" ht="18" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="20" thickBot="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
+    <row r="10" spans="1:14" ht="18" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="23"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="20" thickBot="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+    <row r="11" spans="1:14" ht="18" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="23" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:14" ht="18" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="23" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="C1:N1"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" scale="91" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <headerFooter>
-    <oddFooter>&amp;LTab_43_rpt_PF_RecoveryForecast
-&amp;C&amp;P of &amp;N&amp;R{$date}</oddFooter>
-  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>